--- a/medicine/Mort/Final_Destination__Bloodlines/Final_Destination__Bloodlines.xlsx
+++ b/medicine/Mort/Final_Destination__Bloodlines/Final_Destination__Bloodlines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Destination finale 6 (Final Destination: Bloodlines) est un film américain réalisé par Zach Lipovsky et  Adam B. Stein dont la sortie est prévu en 2025. Il s'agit du sixième volet de la franchise Destination finale.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Final Destination: Bloodlines
@@ -556,7 +572,7 @@
 Langue originale : anglais
 Format : couleur
 Genres : horreur, thriller, fantastique, gore
-Dates de sortie[1] : 2025 Date sujette à modification</t>
+Dates de sortie : 2025 Date sujette à modification</t>
         </is>
       </c>
     </row>
@@ -584,7 +600,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tony Todd : William Bludworth
 Quintessa Swindell : Stefani
@@ -626,15 +644,90 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genèse et développement
-Avant la sortie de Destination finale 5 en 2011, l'acteur Tony Todd déclaré que si le film est un succès commercial, deux suites seraient tournées en simultané[2]. Réalisateur du 5e opus, Steven Quale déclare quant à lui : « Qui sait. Il ne faut jamais dire jamais. Je veux dire, cela dépendra des fans. Nous verrons comment celui-ci se comportera à l'échelle internationale, et si cela rapporte autant d'argent que le quatrième, je suis sûr que Warner Brothers voudra en faire un autre[3]. »
-En janvier 2019, il est révélé que New Line Cinema développe un nouveau film. Patrick Melton et Marcus Dunstan sont initialement chargés d'écrire un script décrit comme une réinvention de la franchise[4]. En mars 2020, le producteur Craig Perry explique que le film « se déroule dans le monde des premiers intervenants comme les ambulanciers, les pompiers et les policiers. » Lorsqu'on lui a demandé si l'histoire se déroulait dans le même canon que les épisodes films, le producteur répond que « reboot est probablement un mot trop fort [...] mais c'est définitivement un film Destination finale[5]. » En octobre 2020, le créateur de la franchise Jeffrey Reddick (en) confirme qu'un sixième film était en préparation avant la pandémie de Covid-19[6].
-En octobre 2021, Lori Evans Taylor est annoncé pour écrire un nouveau script[7]. En janvier 2022, la plateforme HBO Max annonce qu'elle diffusera le film. Jon Watts rejoint alors le projet comme producteur. Il est par ailleurs précisé que Lori Evans Taylor a coécrit le script avec Guy Busick (en)[8]. En juillet 2022, Jeffrey Reddick déclare que le film différera de la formule habituelle de la franchise[9]. En septembre 2022, Zach Lipovsky et Adam Stein sont sélectionnés parmi plus de deux cents candidats pour réaliser le film. Ils ont eu une réunion Zoom avec des dirigeants et des producteurs de New Line pour présenter leur pitch[10].
-Attribution des rôles
-En septembre 2023, le site Bloody Disgusting révèle que Tony Todd a signé pour reprendre son rôle de William Bludworth (en)[11].
-En mars 2024, Brec Bassinger, Teo Briones, Kaitlyn Santa Juana, Richard Harmon, Anna Lore, Owen Joyner, Max Lloyd-Jones, Rya Kihlstedt ou encore Tinpo Lee sont annoncés[12].
-Tournage
-Le tournage devait initialement se dérouler à Vancouver de fin juillet à octobre 2023[13]. Mi-juillet, il est finalement repoussé en raison de la grève SAG-AFTRA[14]. Les prises de vues débutent finalement le 4 mars 2024 et s'achèveront en mai 2024[15],[16].
+          <t>Genèse et développement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant la sortie de Destination finale 5 en 2011, l'acteur Tony Todd déclaré que si le film est un succès commercial, deux suites seraient tournées en simultané. Réalisateur du 5e opus, Steven Quale déclare quant à lui : « Qui sait. Il ne faut jamais dire jamais. Je veux dire, cela dépendra des fans. Nous verrons comment celui-ci se comportera à l'échelle internationale, et si cela rapporte autant d'argent que le quatrième, je suis sûr que Warner Brothers voudra en faire un autre. »
+En janvier 2019, il est révélé que New Line Cinema développe un nouveau film. Patrick Melton et Marcus Dunstan sont initialement chargés d'écrire un script décrit comme une réinvention de la franchise. En mars 2020, le producteur Craig Perry explique que le film « se déroule dans le monde des premiers intervenants comme les ambulanciers, les pompiers et les policiers. » Lorsqu'on lui a demandé si l'histoire se déroulait dans le même canon que les épisodes films, le producteur répond que « reboot est probablement un mot trop fort [...] mais c'est définitivement un film Destination finale. » En octobre 2020, le créateur de la franchise Jeffrey Reddick (en) confirme qu'un sixième film était en préparation avant la pandémie de Covid-19.
+En octobre 2021, Lori Evans Taylor est annoncé pour écrire un nouveau script. En janvier 2022, la plateforme HBO Max annonce qu'elle diffusera le film. Jon Watts rejoint alors le projet comme producteur. Il est par ailleurs précisé que Lori Evans Taylor a coécrit le script avec Guy Busick (en). En juillet 2022, Jeffrey Reddick déclare que le film différera de la formule habituelle de la franchise. En septembre 2022, Zach Lipovsky et Adam Stein sont sélectionnés parmi plus de deux cents candidats pour réaliser le film. Ils ont eu une réunion Zoom avec des dirigeants et des producteurs de New Line pour présenter leur pitch.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Final_Destination:_Bloodlines</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Final_Destination:_Bloodlines</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Attribution des rôles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En septembre 2023, le site Bloody Disgusting révèle que Tony Todd a signé pour reprendre son rôle de William Bludworth (en).
+En mars 2024, Brec Bassinger, Teo Briones, Kaitlyn Santa Juana, Richard Harmon, Anna Lore, Owen Joyner, Max Lloyd-Jones, Rya Kihlstedt ou encore Tinpo Lee sont annoncés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Final_Destination:_Bloodlines</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Final_Destination:_Bloodlines</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage devait initialement se dérouler à Vancouver de fin juillet à octobre 2023. Mi-juillet, il est finalement repoussé en raison de la grève SAG-AFTRA. Les prises de vues débutent finalement le 4 mars 2024 et s'achèveront en mai 2024,.
 </t>
         </is>
       </c>
